--- a/va_facility_data_2025-02-20/Northeast Phoenix VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Northeast%20Phoenix%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Northeast Phoenix VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Northeast%20Phoenix%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R11fd50f9ba10406d8ff6a3b2caf03dbc"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R76be8da3980e4db287bad868e1dec039"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R23beed0fd1df4982b51ec81690a8a7df"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rcfe717ec04f74522bfb1965b42068378"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R552facc0259d4299befb72102dff9e3b"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rb050a63abcf54a8d8d5d92f89b5d620d"/>
   </x:sheets>
 </x:workbook>
 </file>
